--- a/Product Inventory.xlsx
+++ b/Product Inventory.xlsx
@@ -10,7 +10,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -403,16 +404,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Pink Penguin Puppy Chow</v>
+        <v>Canon imageCLASS 2200 Advanced Copier</v>
       </c>
       <c r="C2">
         <v>51100</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -420,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Corneli Calming Collar™</v>
+        <v>Fellowes PB500 Electric Punch Plastic Comb Binding Machine with Manual Bind</v>
       </c>
       <c r="C3">
         <v>25928</v>
@@ -437,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>YELLOW Homestyle® Adult Dog Food</v>
+        <v>Cisco TelePresence System EX90 Videoconferencing Unit</v>
       </c>
       <c r="C4">
         <v>22638</v>
@@ -454,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Robinson's Best® Anti Chew Spray</v>
+        <v>HON 5400 Series Task Chairs for Big and Tall</v>
       </c>
       <c r="C5">
         <v>21871</v>
@@ -471,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>Doggy Breath Freshener</v>
+        <v>GBC DocuBind TL300 Electric Binding System</v>
       </c>
       <c r="C6">
         <v>19823</v>
@@ -488,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>Royal® Adult Devplatypus Food</v>
+        <v>GBC Ibimaster 500 Manual ProClick Binding System</v>
       </c>
       <c r="C7">
         <v>19025</v>
@@ -505,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>Anti Fungal Spray</v>
+        <v>HP Designjet T520 Inkjet Large Format Printer - 24" Color</v>
       </c>
       <c r="C8">
         <v>18375</v>
@@ -522,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>Caring for your Narwhale by Jenn Petti</v>
+        <v>GBC DocuBind P400 Electric Binding System</v>
       </c>
       <c r="C9">
         <v>17965</v>
@@ -539,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>Bird Cage</v>
+        <v>High Speed Automatic Electric Letter Opener</v>
       </c>
       <c r="C10">
         <v>17030</v>
@@ -556,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>Bird Cage Floor Dressing</v>
+        <v>Lexmark MX611dhe Monochrome Laser Printer</v>
       </c>
       <c r="C11">
         <v>16830</v>
@@ -573,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>Sasquatch Feeder</v>
+        <v>Hewlett Packard LaserJet 3310 Copier</v>
       </c>
       <c r="C12">
         <v>15960</v>
@@ -590,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>Parrot Safety Harness</v>
+        <v>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</v>
       </c>
       <c r="C13">
         <v>15611</v>
@@ -607,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>Kearney Cat Collar™</v>
+        <v>Martin Yale Chadless Opener Electric Letter Opener</v>
       </c>
       <c r="C14">
         <v>14991</v>
@@ -624,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>ChowChow® Chewy Treats</v>
+        <v>3D Systems Cube Printer, 2nd Generation, Magenta</v>
       </c>
       <c r="C15">
         <v>14300</v>
@@ -641,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>Emo Chow</v>
+        <v>Ibico EPK-21 Electric Binding System</v>
       </c>
       <c r="C16">
         <v>13986</v>
@@ -658,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>AniMarty® Fish Flakes</v>
+        <v>Apple iPhone 5</v>
       </c>
       <c r="C17">
         <v>12997</v>
@@ -675,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>Adult Dog Taco Costume</v>
+        <v>Bretford Rectangular Conference Table Tops</v>
       </c>
       <c r="C18">
         <v>12469</v>
@@ -692,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>Barker's Anti Bark Spray™</v>
+        <v>Samsung Galaxy Mega 6.3</v>
       </c>
       <c r="C19">
         <v>12012</v>
@@ -709,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>Rose® Collapsible Bowl</v>
+        <v>Canon PC1060 Personal Laser Copier</v>
       </c>
       <c r="C20">
         <v>11620</v>
@@ -726,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>Sasquatch Feed</v>
+        <v>Honeywell Enviracaire Portable HEPA Air Cleaner for 17' x 22' Room</v>
       </c>
       <c r="C21">
         <v>11304</v>
@@ -743,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>Lizard Coat</v>
+        <v>Cubify CubeX 3D Printer Double Head Print</v>
       </c>
       <c r="C22">
         <v>11100</v>
@@ -760,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>Ferret Vitamins</v>
+        <v>DMI Eclipse Executive Suite Bookcases</v>
       </c>
       <c r="C23">
         <v>11047</v>
@@ -777,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>Car Seat Covers</v>
+        <v>Tennsco 6- and 18-Compartment Lockers</v>
       </c>
       <c r="C24">
         <v>10925</v>
@@ -794,7 +795,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>Adult Dog T-Rex Costume</v>
+        <v>Plantronics CS510 - Over-the-Head monaural Wireless Headset System</v>
       </c>
       <c r="C25">
         <v>10822</v>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>Fox Car Safety Harness</v>
+        <v>Global Troy Executive Leather Low-Back Tilter</v>
       </c>
       <c r="C26">
         <v>10571</v>
@@ -828,7 +829,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>Dog Agility Tunnel</v>
+        <v>Logitech P710e Mobile Speakerphone</v>
       </c>
       <c r="C27">
         <v>10197</v>
@@ -845,7 +846,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>Fishpoo® Fish Shampoo</v>
+        <v>Chromcraft Bull-Nose Wood Oval Conference Tables &amp; Bases</v>
       </c>
       <c r="C28">
         <v>9918</v>
@@ -862,7 +863,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>Carrot Plushie</v>
+        <v>SAFCO Arco Folding Chair</v>
       </c>
       <c r="C29">
         <v>9501</v>
@@ -879,7 +880,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>Yeti Vitamins</v>
+        <v>Plantronics Savi W720 Multi-Device Wireless Headset System</v>
       </c>
       <c r="C30">
         <v>9367</v>
@@ -896,7 +897,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>Freeze-Dried Beef Treats</v>
+        <v>Hon Deluxe Fabric Upholstered Stacking Chairs, Rounded Back</v>
       </c>
       <c r="C31">
         <v>9271</v>
@@ -913,7 +914,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>Eton Mess® Dog Hoodie</v>
+        <v>Global Deluxe High-Back Manager's Chair</v>
       </c>
       <c r="C32">
         <v>8665</v>
@@ -930,7 +931,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>Rudolph Antler Chews™</v>
+        <v>GuestStacker Chair with Chrome Finish Legs</v>
       </c>
       <c r="C33">
         <v>8550</v>
@@ -947,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>Snake Oil</v>
+        <v>Hon 4070 Series Pagoda Armless Upholstered Stacking Chairs</v>
       </c>
       <c r="C34">
         <v>8431</v>
@@ -964,7 +965,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>Round Fish Bowl</v>
+        <v>Tennsco Double-Tier Lockers</v>
       </c>
       <c r="C35">
         <v>8371</v>
@@ -981,7 +982,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>Parrot Nail Clippers</v>
+        <v>Hot File 7-Pocket, Floor Stand</v>
       </c>
       <c r="C36">
         <v>8138</v>
@@ -998,7 +999,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>Kangaroo® Food Pouch</v>
+        <v>Tennsco Single-Tier Lockers</v>
       </c>
       <c r="C37">
         <v>8032</v>
@@ -1015,7 +1016,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>Lice &amp; Mite Destroyer</v>
+        <v>Wilson Electronics DB Pro Signal Booster</v>
       </c>
       <c r="C38">
         <v>8019</v>
@@ -1032,7 +1033,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>Fox Toothpaste</v>
+        <v>Hewlett Packard 610 Color Digital Copier / Printer</v>
       </c>
       <c r="C39">
         <v>8000</v>
@@ -1049,7 +1050,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>Crunchy Dog Treats</v>
+        <v>Okidata MB760 Printer</v>
       </c>
       <c r="C40">
         <v>7834</v>
@@ -1066,7 +1067,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>Mini Adult Dog Food</v>
+        <v>Bush Advantage Collection Racetrack Conference Table</v>
       </c>
       <c r="C41">
         <v>7763</v>
@@ -1083,7 +1084,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>All-Purpose Pet Conditioner</v>
+        <v>Ativa V4110MDD Micro-Cut Shredder</v>
       </c>
       <c r="C42">
         <v>7700</v>
@@ -1100,7 +1101,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>Dental Doggie Treat</v>
+        <v>Hon 4700 Series Mobuis Mid-Back Task Chairs with Adjustable Arms</v>
       </c>
       <c r="C43">
         <v>7582</v>
@@ -1117,7 +1118,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>Puppy Snacks</v>
+        <v>Global Commerce Series High-Back Swivel/Tilt Chairs</v>
       </c>
       <c r="C44">
         <v>7580</v>
@@ -1134,7 +1135,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>Dewormer</v>
+        <v>Canon Imageclass D680 Copier / Fax</v>
       </c>
       <c r="C45">
         <v>7560</v>

--- a/Product Inventory.xlsx
+++ b/Product Inventory.xlsx
@@ -10,8 +10,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -404,16 +403,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Canon imageCLASS 2200 Advanced Copier</v>
+        <v>Pink Penguin Puppy Chow</v>
       </c>
       <c r="C2">
         <v>51100</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Fellowes PB500 Electric Punch Plastic Comb Binding Machine with Manual Bind</v>
+        <v>Corneli Calming Collar™</v>
       </c>
       <c r="C3">
         <v>25928</v>
@@ -438,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Cisco TelePresence System EX90 Videoconferencing Unit</v>
+        <v>YELLOW Homestyle® Adult Dog Food</v>
       </c>
       <c r="C4">
         <v>22638</v>
@@ -455,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>HON 5400 Series Task Chairs for Big and Tall</v>
+        <v>Robinson's Best® Anti Chew Spray</v>
       </c>
       <c r="C5">
         <v>21871</v>
@@ -472,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>GBC DocuBind TL300 Electric Binding System</v>
+        <v>Doggy Breath Freshener</v>
       </c>
       <c r="C6">
         <v>19823</v>
@@ -489,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>GBC Ibimaster 500 Manual ProClick Binding System</v>
+        <v>Royal® Adult Devplatypus Food</v>
       </c>
       <c r="C7">
         <v>19025</v>
@@ -506,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>HP Designjet T520 Inkjet Large Format Printer - 24" Color</v>
+        <v>Anti Fungal Spray</v>
       </c>
       <c r="C8">
         <v>18375</v>
@@ -523,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>GBC DocuBind P400 Electric Binding System</v>
+        <v>Caring for your Narwhale by Jenn Petti</v>
       </c>
       <c r="C9">
         <v>17965</v>
@@ -540,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>High Speed Automatic Electric Letter Opener</v>
+        <v>Bird Cage</v>
       </c>
       <c r="C10">
         <v>17030</v>
@@ -557,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>Lexmark MX611dhe Monochrome Laser Printer</v>
+        <v>Bird Cage Floor Dressing</v>
       </c>
       <c r="C11">
         <v>16830</v>
@@ -574,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>Hewlett Packard LaserJet 3310 Copier</v>
+        <v>Sasquatch Feeder</v>
       </c>
       <c r="C12">
         <v>15960</v>
@@ -591,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</v>
+        <v>Parrot Safety Harness</v>
       </c>
       <c r="C13">
         <v>15611</v>
@@ -608,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>Martin Yale Chadless Opener Electric Letter Opener</v>
+        <v>Kearney Cat Collar™</v>
       </c>
       <c r="C14">
         <v>14991</v>
@@ -625,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>3D Systems Cube Printer, 2nd Generation, Magenta</v>
+        <v>ChowChow® Chewy Treats</v>
       </c>
       <c r="C15">
         <v>14300</v>
@@ -642,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>Ibico EPK-21 Electric Binding System</v>
+        <v>Emo Chow</v>
       </c>
       <c r="C16">
         <v>13986</v>
@@ -659,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>Apple iPhone 5</v>
+        <v>AniMarty® Fish Flakes</v>
       </c>
       <c r="C17">
         <v>12997</v>
@@ -676,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>Bretford Rectangular Conference Table Tops</v>
+        <v>Adult Dog Taco Costume</v>
       </c>
       <c r="C18">
         <v>12469</v>
@@ -693,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>Samsung Galaxy Mega 6.3</v>
+        <v>Barker's Anti Bark Spray™</v>
       </c>
       <c r="C19">
         <v>12012</v>
@@ -710,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>Canon PC1060 Personal Laser Copier</v>
+        <v>Rose® Collapsible Bowl</v>
       </c>
       <c r="C20">
         <v>11620</v>
@@ -727,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>Honeywell Enviracaire Portable HEPA Air Cleaner for 17' x 22' Room</v>
+        <v>Sasquatch Feed</v>
       </c>
       <c r="C21">
         <v>11304</v>
@@ -744,7 +743,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>Cubify CubeX 3D Printer Double Head Print</v>
+        <v>Lizard Coat</v>
       </c>
       <c r="C22">
         <v>11100</v>
@@ -761,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>DMI Eclipse Executive Suite Bookcases</v>
+        <v>Ferret Vitamins</v>
       </c>
       <c r="C23">
         <v>11047</v>
@@ -778,7 +777,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>Tennsco 6- and 18-Compartment Lockers</v>
+        <v>Car Seat Covers</v>
       </c>
       <c r="C24">
         <v>10925</v>
@@ -795,7 +794,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>Plantronics CS510 - Over-the-Head monaural Wireless Headset System</v>
+        <v>Adult Dog T-Rex Costume</v>
       </c>
       <c r="C25">
         <v>10822</v>
@@ -812,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>Global Troy Executive Leather Low-Back Tilter</v>
+        <v>Fox Car Safety Harness</v>
       </c>
       <c r="C26">
         <v>10571</v>
@@ -829,7 +828,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>Logitech P710e Mobile Speakerphone</v>
+        <v>Dog Agility Tunnel</v>
       </c>
       <c r="C27">
         <v>10197</v>
@@ -846,7 +845,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>Chromcraft Bull-Nose Wood Oval Conference Tables &amp; Bases</v>
+        <v>Fishpoo® Fish Shampoo</v>
       </c>
       <c r="C28">
         <v>9918</v>
@@ -863,7 +862,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>SAFCO Arco Folding Chair</v>
+        <v>Carrot Plushie</v>
       </c>
       <c r="C29">
         <v>9501</v>
@@ -880,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>Plantronics Savi W720 Multi-Device Wireless Headset System</v>
+        <v>Yeti Vitamins</v>
       </c>
       <c r="C30">
         <v>9367</v>
@@ -897,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>Hon Deluxe Fabric Upholstered Stacking Chairs, Rounded Back</v>
+        <v>Freeze-Dried Beef Treats</v>
       </c>
       <c r="C31">
         <v>9271</v>
@@ -914,7 +913,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>Global Deluxe High-Back Manager's Chair</v>
+        <v>Eton Mess® Dog Hoodie</v>
       </c>
       <c r="C32">
         <v>8665</v>
@@ -931,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>GuestStacker Chair with Chrome Finish Legs</v>
+        <v>Rudolph Antler Chews™</v>
       </c>
       <c r="C33">
         <v>8550</v>
@@ -948,7 +947,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>Hon 4070 Series Pagoda Armless Upholstered Stacking Chairs</v>
+        <v>Snake Oil</v>
       </c>
       <c r="C34">
         <v>8431</v>
@@ -965,7 +964,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>Tennsco Double-Tier Lockers</v>
+        <v>Round Fish Bowl</v>
       </c>
       <c r="C35">
         <v>8371</v>
@@ -982,7 +981,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>Hot File 7-Pocket, Floor Stand</v>
+        <v>Parrot Nail Clippers</v>
       </c>
       <c r="C36">
         <v>8138</v>
@@ -999,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>Tennsco Single-Tier Lockers</v>
+        <v>Kangaroo® Food Pouch</v>
       </c>
       <c r="C37">
         <v>8032</v>
@@ -1016,7 +1015,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>Wilson Electronics DB Pro Signal Booster</v>
+        <v>Lice &amp; Mite Destroyer</v>
       </c>
       <c r="C38">
         <v>8019</v>
@@ -1033,7 +1032,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>Hewlett Packard 610 Color Digital Copier / Printer</v>
+        <v>Fox Toothpaste</v>
       </c>
       <c r="C39">
         <v>8000</v>
@@ -1050,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>Okidata MB760 Printer</v>
+        <v>Crunchy Dog Treats</v>
       </c>
       <c r="C40">
         <v>7834</v>
@@ -1067,7 +1066,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>Bush Advantage Collection Racetrack Conference Table</v>
+        <v>Mini Adult Dog Food</v>
       </c>
       <c r="C41">
         <v>7763</v>
@@ -1084,7 +1083,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>Ativa V4110MDD Micro-Cut Shredder</v>
+        <v>All-Purpose Pet Conditioner</v>
       </c>
       <c r="C42">
         <v>7700</v>
@@ -1101,7 +1100,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>Hon 4700 Series Mobuis Mid-Back Task Chairs with Adjustable Arms</v>
+        <v>Dental Doggie Treat</v>
       </c>
       <c r="C43">
         <v>7582</v>
@@ -1118,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>Global Commerce Series High-Back Swivel/Tilt Chairs</v>
+        <v>Puppy Snacks</v>
       </c>
       <c r="C44">
         <v>7580</v>
@@ -1135,7 +1134,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>Canon Imageclass D680 Copier / Fax</v>
+        <v>Dewormer</v>
       </c>
       <c r="C45">
         <v>7560</v>

--- a/Product Inventory.xlsx
+++ b/Product Inventory.xlsx
@@ -1,20 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkovner/Dropbox/Coding/Extensions/InventoryManagement_showhide/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BA40D14-DF62-8445-97F4-2FFE10C3A338}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="29940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Product Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>RowID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Pink Penguin Puppy Chow</t>
+  </si>
+  <si>
+    <t>Corneli Calming Collar™</t>
+  </si>
+  <si>
+    <t>YELLOW Homestyle® Adult Dog Food</t>
+  </si>
+  <si>
+    <t>Robinson's Best® Anti Chew Spray</t>
+  </si>
+  <si>
+    <t>Doggy Breath Freshener</t>
+  </si>
+  <si>
+    <t>Royal® Adult Devplatypus Food</t>
+  </si>
+  <si>
+    <t>Anti Fungal Spray</t>
+  </si>
+  <si>
+    <t>Caring for your Narwhale by Jenn Petti</t>
+  </si>
+  <si>
+    <t>Bird Cage</t>
+  </si>
+  <si>
+    <t>Bird Cage Floor Dressing</t>
+  </si>
+  <si>
+    <t>Sasquatch Feeder</t>
+  </si>
+  <si>
+    <t>Parrot Safety Harness</t>
+  </si>
+  <si>
+    <t>ChowChow® Chewy Treats</t>
+  </si>
+  <si>
+    <t>Emo Chow</t>
+  </si>
+  <si>
+    <t>AniMarty® Fish Flakes</t>
+  </si>
+  <si>
+    <t>Adult Dog Taco Costume</t>
+  </si>
+  <si>
+    <t>Barker's Anti Bark Spray™</t>
+  </si>
+  <si>
+    <t>Rose® Collapsible Bowl</t>
+  </si>
+  <si>
+    <t>Sasquatch Feed</t>
+  </si>
+  <si>
+    <t>Lizard Coat</t>
+  </si>
+  <si>
+    <t>Ferret Vitamins</t>
+  </si>
+  <si>
+    <t>Car Seat Covers</t>
+  </si>
+  <si>
+    <t>Adult Dog T-Rex Costume</t>
+  </si>
+  <si>
+    <t>Fox Car Safety Harness</t>
+  </si>
+  <si>
+    <t>Dog Agility Tunnel</t>
+  </si>
+  <si>
+    <t>Fishpoo® Fish Shampoo</t>
+  </si>
+  <si>
+    <t>Carrot Plushie</t>
+  </si>
+  <si>
+    <t>Yeti Vitamins</t>
+  </si>
+  <si>
+    <t>Freeze-Dried Beef Treats</t>
+  </si>
+  <si>
+    <t>Eton Mess® Dog Hoodie</t>
+  </si>
+  <si>
+    <t>Rudolph Antler Chews™</t>
+  </si>
+  <si>
+    <t>Snake Oil</t>
+  </si>
+  <si>
+    <t>Round Fish Bowl</t>
+  </si>
+  <si>
+    <t>Parrot Nail Clippers</t>
+  </si>
+  <si>
+    <t>Kangaroo® Food Pouch</t>
+  </si>
+  <si>
+    <t>Lice &amp; Mite Destroyer</t>
+  </si>
+  <si>
+    <t>Fox Toothpaste</t>
+  </si>
+  <si>
+    <t>Crunchy Dog Treats</t>
+  </si>
+  <si>
+    <t>Mini Adult Dog Food</t>
+  </si>
+  <si>
+    <t>All-Purpose Pet Conditioner</t>
+  </si>
+  <si>
+    <t>Dental Doggie Treat</t>
+  </si>
+  <si>
+    <t>Puppy Snacks</t>
+  </si>
+  <si>
+    <t>Dewormer</t>
+  </si>
+  <si>
+    <t>Kearney Cat Collar™</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,6 +210,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,53 +542,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Product Inventory"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>RowID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Product Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Ordered</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Canon imageCLASS 2200 Advanced Copier</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>51100</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Fellowes PB500 Electric Punch Plastic Comb Binding Machine with Manual Bind</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>25928</v>
@@ -433,12 +606,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Cisco TelePresence System EX90 Videoconferencing Unit</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>22638</v>
@@ -450,12 +623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>HON 5400 Series Task Chairs for Big and Tall</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
         <v>21871</v>
@@ -467,12 +640,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>GBC DocuBind TL300 Electric Binding System</v>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
         <v>19823</v>
@@ -484,12 +657,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>GBC Ibimaster 500 Manual ProClick Binding System</v>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7">
         <v>19025</v>
@@ -501,12 +674,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>HP Designjet T520 Inkjet Large Format Printer - 24" Color</v>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
         <v>18375</v>
@@ -518,12 +691,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>GBC DocuBind P400 Electric Binding System</v>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9">
         <v>17965</v>
@@ -535,12 +708,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>High Speed Automatic Electric Letter Opener</v>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10">
         <v>17030</v>
@@ -552,12 +725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>Lexmark MX611dhe Monochrome Laser Printer</v>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11">
         <v>16830</v>
@@ -569,12 +742,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>Hewlett Packard LaserJet 3310 Copier</v>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12">
         <v>15960</v>
@@ -586,12 +759,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>Riverside Palais Royal Lawyers Bookcase, Royale Cherry Finish</v>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13">
         <v>15611</v>
@@ -603,12 +776,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>Martin Yale Chadless Opener Electric Letter Opener</v>
+      <c r="B14" t="s">
+        <v>48</v>
       </c>
       <c r="C14">
         <v>14991</v>
@@ -620,12 +793,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>3D Systems Cube Printer, 2nd Generation, Magenta</v>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
         <v>14300</v>
@@ -637,12 +810,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>Ibico EPK-21 Electric Binding System</v>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16">
         <v>13986</v>
@@ -654,12 +827,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>Apple iPhone 5</v>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
         <v>12997</v>
@@ -671,12 +844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>Bretford Rectangular Conference Table Tops</v>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
         <v>12469</v>
@@ -688,12 +861,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <v>Samsung Galaxy Mega 6.3</v>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
       <c r="C19">
         <v>12012</v>
@@ -705,12 +878,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <v>Canon PC1060 Personal Laser Copier</v>
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
       <c r="C20">
         <v>11620</v>
@@ -722,12 +895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <v>Honeywell Enviracaire Portable HEPA Air Cleaner for 17' x 22' Room</v>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
       <c r="C21">
         <v>11304</v>
@@ -739,12 +912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <v>Cubify CubeX 3D Printer Double Head Print</v>
+      <c r="B22" t="s">
+        <v>24</v>
       </c>
       <c r="C22">
         <v>11100</v>
@@ -756,12 +929,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
-        <v>DMI Eclipse Executive Suite Bookcases</v>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
       <c r="C23">
         <v>11047</v>
@@ -773,12 +946,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
-        <v>Tennsco 6- and 18-Compartment Lockers</v>
+      <c r="B24" t="s">
+        <v>26</v>
       </c>
       <c r="C24">
         <v>10925</v>
@@ -790,12 +963,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <v>Plantronics CS510 - Over-the-Head monaural Wireless Headset System</v>
+      <c r="B25" t="s">
+        <v>27</v>
       </c>
       <c r="C25">
         <v>10822</v>
@@ -807,12 +980,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
-        <v>Global Troy Executive Leather Low-Back Tilter</v>
+      <c r="B26" t="s">
+        <v>28</v>
       </c>
       <c r="C26">
         <v>10571</v>
@@ -824,12 +997,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <v>Logitech P710e Mobile Speakerphone</v>
+      <c r="B27" t="s">
+        <v>29</v>
       </c>
       <c r="C27">
         <v>10197</v>
@@ -841,12 +1014,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
-        <v>Chromcraft Bull-Nose Wood Oval Conference Tables &amp; Bases</v>
+      <c r="B28" t="s">
+        <v>30</v>
       </c>
       <c r="C28">
         <v>9918</v>
@@ -858,12 +1031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
-        <v>SAFCO Arco Folding Chair</v>
+      <c r="B29" t="s">
+        <v>31</v>
       </c>
       <c r="C29">
         <v>9501</v>
@@ -875,12 +1048,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
-        <v>Plantronics Savi W720 Multi-Device Wireless Headset System</v>
+      <c r="B30" t="s">
+        <v>32</v>
       </c>
       <c r="C30">
         <v>9367</v>
@@ -892,12 +1065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
-        <v>Hon Deluxe Fabric Upholstered Stacking Chairs, Rounded Back</v>
+      <c r="B31" t="s">
+        <v>33</v>
       </c>
       <c r="C31">
         <v>9271</v>
@@ -909,12 +1082,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
-        <v>Global Deluxe High-Back Manager's Chair</v>
+      <c r="B32" t="s">
+        <v>34</v>
       </c>
       <c r="C32">
         <v>8665</v>
@@ -926,12 +1099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
-        <v>GuestStacker Chair with Chrome Finish Legs</v>
+      <c r="B33" t="s">
+        <v>35</v>
       </c>
       <c r="C33">
         <v>8550</v>
@@ -943,12 +1116,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
-        <v>Hon 4070 Series Pagoda Armless Upholstered Stacking Chairs</v>
+      <c r="B34" t="s">
+        <v>36</v>
       </c>
       <c r="C34">
         <v>8431</v>
@@ -960,12 +1133,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
-        <v>Tennsco Double-Tier Lockers</v>
+      <c r="B35" t="s">
+        <v>37</v>
       </c>
       <c r="C35">
         <v>8371</v>
@@ -977,12 +1150,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <v>Hot File 7-Pocket, Floor Stand</v>
+      <c r="B36" t="s">
+        <v>38</v>
       </c>
       <c r="C36">
         <v>8138</v>
@@ -994,12 +1167,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
-        <v>Tennsco Single-Tier Lockers</v>
+      <c r="B37" t="s">
+        <v>39</v>
       </c>
       <c r="C37">
         <v>8032</v>
@@ -1011,12 +1184,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
-        <v>Wilson Electronics DB Pro Signal Booster</v>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
       <c r="C38">
         <v>8019</v>
@@ -1028,12 +1201,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
-        <v>Hewlett Packard 610 Color Digital Copier / Printer</v>
+      <c r="B39" t="s">
+        <v>41</v>
       </c>
       <c r="C39">
         <v>8000</v>
@@ -1045,12 +1218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
-        <v>Okidata MB760 Printer</v>
+      <c r="B40" t="s">
+        <v>42</v>
       </c>
       <c r="C40">
         <v>7834</v>
@@ -1062,12 +1235,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
-        <v>Bush Advantage Collection Racetrack Conference Table</v>
+      <c r="B41" t="s">
+        <v>43</v>
       </c>
       <c r="C41">
         <v>7763</v>
@@ -1079,12 +1252,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
-        <v>Ativa V4110MDD Micro-Cut Shredder</v>
+      <c r="B42" t="s">
+        <v>44</v>
       </c>
       <c r="C42">
         <v>7700</v>
@@ -1096,12 +1269,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
-        <v>Hon 4700 Series Mobuis Mid-Back Task Chairs with Adjustable Arms</v>
+      <c r="B43" t="s">
+        <v>45</v>
       </c>
       <c r="C43">
         <v>7582</v>
@@ -1113,12 +1286,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
-        <v>Global Commerce Series High-Back Swivel/Tilt Chairs</v>
+      <c r="B44" t="s">
+        <v>46</v>
       </c>
       <c r="C44">
         <v>7580</v>
@@ -1130,12 +1303,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
-        <v>Canon Imageclass D680 Copier / Fax</v>
+      <c r="B45" t="s">
+        <v>47</v>
       </c>
       <c r="C45">
         <v>7560</v>

--- a/Product Inventory.xlsx
+++ b/Product Inventory.xlsx
@@ -1,179 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkovner/Dropbox/Coding/Extensions/InventoryManagement_showhide/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BA40D14-DF62-8445-97F4-2FFE10C3A338}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="29940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false" codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Product Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>RowID</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Ordered</t>
-  </si>
-  <si>
-    <t>Pink Penguin Puppy Chow</t>
-  </si>
-  <si>
-    <t>Corneli Calming Collar™</t>
-  </si>
-  <si>
-    <t>YELLOW Homestyle® Adult Dog Food</t>
-  </si>
-  <si>
-    <t>Robinson's Best® Anti Chew Spray</t>
-  </si>
-  <si>
-    <t>Doggy Breath Freshener</t>
-  </si>
-  <si>
-    <t>Royal® Adult Devplatypus Food</t>
-  </si>
-  <si>
-    <t>Anti Fungal Spray</t>
-  </si>
-  <si>
-    <t>Caring for your Narwhale by Jenn Petti</t>
-  </si>
-  <si>
-    <t>Bird Cage</t>
-  </si>
-  <si>
-    <t>Bird Cage Floor Dressing</t>
-  </si>
-  <si>
-    <t>Sasquatch Feeder</t>
-  </si>
-  <si>
-    <t>Parrot Safety Harness</t>
-  </si>
-  <si>
-    <t>ChowChow® Chewy Treats</t>
-  </si>
-  <si>
-    <t>Emo Chow</t>
-  </si>
-  <si>
-    <t>AniMarty® Fish Flakes</t>
-  </si>
-  <si>
-    <t>Adult Dog Taco Costume</t>
-  </si>
-  <si>
-    <t>Barker's Anti Bark Spray™</t>
-  </si>
-  <si>
-    <t>Rose® Collapsible Bowl</t>
-  </si>
-  <si>
-    <t>Sasquatch Feed</t>
-  </si>
-  <si>
-    <t>Lizard Coat</t>
-  </si>
-  <si>
-    <t>Ferret Vitamins</t>
-  </si>
-  <si>
-    <t>Car Seat Covers</t>
-  </si>
-  <si>
-    <t>Adult Dog T-Rex Costume</t>
-  </si>
-  <si>
-    <t>Fox Car Safety Harness</t>
-  </si>
-  <si>
-    <t>Dog Agility Tunnel</t>
-  </si>
-  <si>
-    <t>Fishpoo® Fish Shampoo</t>
-  </si>
-  <si>
-    <t>Carrot Plushie</t>
-  </si>
-  <si>
-    <t>Yeti Vitamins</t>
-  </si>
-  <si>
-    <t>Freeze-Dried Beef Treats</t>
-  </si>
-  <si>
-    <t>Eton Mess® Dog Hoodie</t>
-  </si>
-  <si>
-    <t>Rudolph Antler Chews™</t>
-  </si>
-  <si>
-    <t>Snake Oil</t>
-  </si>
-  <si>
-    <t>Round Fish Bowl</t>
-  </si>
-  <si>
-    <t>Parrot Nail Clippers</t>
-  </si>
-  <si>
-    <t>Kangaroo® Food Pouch</t>
-  </si>
-  <si>
-    <t>Lice &amp; Mite Destroyer</t>
-  </si>
-  <si>
-    <t>Fox Toothpaste</t>
-  </si>
-  <si>
-    <t>Crunchy Dog Treats</t>
-  </si>
-  <si>
-    <t>Mini Adult Dog Food</t>
-  </si>
-  <si>
-    <t>All-Purpose Pet Conditioner</t>
-  </si>
-  <si>
-    <t>Dental Doggie Treat</t>
-  </si>
-  <si>
-    <t>Puppy Snacks</t>
-  </si>
-  <si>
-    <t>Dewormer</t>
-  </si>
-  <si>
-    <t>Kearney Cat Collar™</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -542,42 +374,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Product Inventory"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>RowID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Product Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Ordered</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" t="str">
+        <v>Pink Penguin Puppy Chow</v>
       </c>
       <c r="C2">
         <v>51100</v>
@@ -589,12 +415,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="str">
+        <v>Corneli Calming Collar™</v>
       </c>
       <c r="C3">
         <v>25928</v>
@@ -606,12 +432,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" t="str">
+        <v>YELLOW Homestyle® Adult Dog Food</v>
       </c>
       <c r="C4">
         <v>22638</v>
@@ -623,12 +449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5" t="str">
+        <v>Robinson's Best® Anti Chew Spray</v>
       </c>
       <c r="C5">
         <v>21871</v>
@@ -640,12 +466,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6" t="str">
+        <v>Doggy Breath Freshener</v>
       </c>
       <c r="C6">
         <v>19823</v>
@@ -657,12 +483,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7" t="str">
+        <v>Royal® Adult Devplatypus Food</v>
       </c>
       <c r="C7">
         <v>19025</v>
@@ -674,12 +500,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8" t="str">
+        <v>Anti Fungal Spray</v>
       </c>
       <c r="C8">
         <v>18375</v>
@@ -691,12 +517,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9" t="str">
+        <v>Caring for your Narwhale by Jenn Petti</v>
       </c>
       <c r="C9">
         <v>17965</v>
@@ -708,12 +534,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10" t="str">
+        <v>Bird Cage</v>
       </c>
       <c r="C10">
         <v>17030</v>
@@ -725,12 +551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11" t="str">
+        <v>Bird Cage Floor Dressing</v>
       </c>
       <c r="C11">
         <v>16830</v>
@@ -742,12 +568,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
+      <c r="B12" t="str">
+        <v>Sasquatch Feeder</v>
       </c>
       <c r="C12">
         <v>15960</v>
@@ -759,12 +585,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
+      <c r="B13" t="str">
+        <v>Parrot Safety Harness</v>
       </c>
       <c r="C13">
         <v>15611</v>
@@ -776,12 +602,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
+      <c r="B14" t="str">
+        <v>Kearney Cat Collar™</v>
       </c>
       <c r="C14">
         <v>14991</v>
@@ -793,12 +619,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
+      <c r="B15" t="str">
+        <v>ChowChow® Chewy Treats</v>
       </c>
       <c r="C15">
         <v>14300</v>
@@ -810,12 +636,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
+      <c r="B16" t="str">
+        <v>Emo Chow</v>
       </c>
       <c r="C16">
         <v>13986</v>
@@ -827,12 +653,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
+      <c r="B17" t="str">
+        <v>AniMarty® Fish Flakes</v>
       </c>
       <c r="C17">
         <v>12997</v>
@@ -844,12 +670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="B18" t="str">
+        <v>Adult Dog Taco Costume</v>
       </c>
       <c r="C18">
         <v>12469</v>
@@ -861,12 +687,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
+      <c r="B19" t="str">
+        <v>Barker's Anti Bark Spray™</v>
       </c>
       <c r="C19">
         <v>12012</v>
@@ -878,12 +704,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
+      <c r="B20" t="str">
+        <v>Rose® Collapsible Bowl</v>
       </c>
       <c r="C20">
         <v>11620</v>
@@ -895,12 +721,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
+      <c r="B21" t="str">
+        <v>Sasquatch Feed</v>
       </c>
       <c r="C21">
         <v>11304</v>
@@ -912,12 +738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
+      <c r="B22" t="str">
+        <v>Lizard Coat</v>
       </c>
       <c r="C22">
         <v>11100</v>
@@ -929,12 +755,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
+      <c r="B23" t="str">
+        <v>Ferret Vitamins</v>
       </c>
       <c r="C23">
         <v>11047</v>
@@ -946,12 +772,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
+      <c r="B24" t="str">
+        <v>Car Seat Covers</v>
       </c>
       <c r="C24">
         <v>10925</v>
@@ -963,12 +789,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
+      <c r="B25" t="str">
+        <v>Adult Dog T-Rex Costume</v>
       </c>
       <c r="C25">
         <v>10822</v>
@@ -980,12 +806,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>28</v>
+      <c r="B26" t="str">
+        <v>Fox Car Safety Harness</v>
       </c>
       <c r="C26">
         <v>10571</v>
@@ -997,12 +823,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
+      <c r="B27" t="str">
+        <v>Dog Agility Tunnel</v>
       </c>
       <c r="C27">
         <v>10197</v>
@@ -1014,12 +840,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>30</v>
+      <c r="B28" t="str">
+        <v>Fishpoo® Fish Shampoo</v>
       </c>
       <c r="C28">
         <v>9918</v>
@@ -1031,12 +857,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
+      <c r="B29" t="str">
+        <v>Carrot Plushie</v>
       </c>
       <c r="C29">
         <v>9501</v>
@@ -1048,12 +874,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
+      <c r="B30" t="str">
+        <v>Yeti Vitamins</v>
       </c>
       <c r="C30">
         <v>9367</v>
@@ -1065,12 +891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
+      <c r="B31" t="str">
+        <v>Freeze-Dried Beef Treats</v>
       </c>
       <c r="C31">
         <v>9271</v>
@@ -1082,12 +908,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
+      <c r="B32" t="str">
+        <v>Eton Mess® Dog Hoodie</v>
       </c>
       <c r="C32">
         <v>8665</v>
@@ -1099,12 +925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>35</v>
+      <c r="B33" t="str">
+        <v>Rudolph Antler Chews™</v>
       </c>
       <c r="C33">
         <v>8550</v>
@@ -1116,12 +942,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
+      <c r="B34" t="str">
+        <v>Snake Oil</v>
       </c>
       <c r="C34">
         <v>8431</v>
@@ -1133,12 +959,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>37</v>
+      <c r="B35" t="str">
+        <v>Round Fish Bowl</v>
       </c>
       <c r="C35">
         <v>8371</v>
@@ -1150,12 +976,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
+      <c r="B36" t="str">
+        <v>Parrot Nail Clippers</v>
       </c>
       <c r="C36">
         <v>8138</v>
@@ -1167,12 +993,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
+      <c r="B37" t="str">
+        <v>Kangaroo® Food Pouch</v>
       </c>
       <c r="C37">
         <v>8032</v>
@@ -1184,12 +1010,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>40</v>
+      <c r="B38" t="str">
+        <v>Lice &amp; Mite Destroyer</v>
       </c>
       <c r="C38">
         <v>8019</v>
@@ -1201,12 +1027,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
+      <c r="B39" t="str">
+        <v>Fox Toothpaste</v>
       </c>
       <c r="C39">
         <v>8000</v>
@@ -1218,12 +1044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>42</v>
+      <c r="B40" t="str">
+        <v>Crunchy Dog Treats</v>
       </c>
       <c r="C40">
         <v>7834</v>
@@ -1235,12 +1061,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>43</v>
+      <c r="B41" t="str">
+        <v>Mini Adult Dog Food</v>
       </c>
       <c r="C41">
         <v>7763</v>
@@ -1252,12 +1078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>44</v>
+      <c r="B42" t="str">
+        <v>All-Purpose Pet Conditioner</v>
       </c>
       <c r="C42">
         <v>7700</v>
@@ -1269,12 +1095,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>45</v>
+      <c r="B43" t="str">
+        <v>Dental Doggie Treat</v>
       </c>
       <c r="C43">
         <v>7582</v>
@@ -1286,12 +1112,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>46</v>
+      <c r="B44" t="str">
+        <v>Puppy Snacks</v>
       </c>
       <c r="C44">
         <v>7580</v>
@@ -1303,12 +1129,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>47</v>
+      <c r="B45" t="str">
+        <v>Dewormer</v>
       </c>
       <c r="C45">
         <v>7560</v>
